--- a/biology/Zoologie/Bagaceratops/Bagaceratops.xlsx
+++ b/biology/Zoologie/Bagaceratops/Bagaceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bagaceratops rozhdestvenskyi
-Bagaceratops est un genre éteint de dinosaure cératopsien ayant vécu il y a environ 72 millions d'années[1], durant le Maastrichtien basal (Crétacé supérieur), dans ce qui est maintenant le bassin de Nemegt, dans la province d'Ömnögovi, au sud de la Mongolie. 
+Bagaceratops est un genre éteint de dinosaure cératopsien ayant vécu il y a environ 72 millions d'années, durant le Maastrichtien basal (Crétacé supérieur), dans ce qui est maintenant le bassin de Nemegt, dans la province d'Ömnögovi, au sud de la Mongolie. 
 Le genre est monotypique et l'espèce type est Bagaceratops rozhdestvenskyi.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vient de la combinaison du mongol baga, « petit », et du grec ancien latinisé en ceratops, « visage (ou face) à cornes », pour donner « visage (ou face) à petite corne ».
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il ressemblait à un protocératops, mesurait 1 mètre de long et n'avait pas de dents de devant. Une espèce en est connue, Bagaceratops rozhdestvenskyi, décrite par Teresa Maryanska et Osmólska en 1975 à partir de plusieurs crânes et de matériaux post-crâniens découverts dans la formation de Barun Goyot, dans la province d'Ömnögovi en Mongolie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ressemblait à un protocératops, mesurait 1 mètre de long et n'avait pas de dents de devant. Une espèce en est connue, Bagaceratops rozhdestvenskyi, décrite par Teresa Maryanska et Osmólska en 1975 à partir de plusieurs crânes et de matériaux post-crâniens découverts dans la formation de Barun Goyot, dans la province d'Ömnögovi en Mongolie.
 </t>
         </is>
       </c>
